--- a/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_0.xlsx
+++ b/3.b.WordFrequency/TFIDF-K-means/split_cluster/cluster_0.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Word Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A58"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,6 +440,11 @@
           <t>result</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>processed_result</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,244 +452,296 @@
           <t>在清空聊天记录后，用户试图查看聊天记录时发现聊天记录仍然存在，与预期的“已清空”不符。</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>清空 聊天记录 试图 查看 聊天记录 发现 聊天记录 仍然 预期 清空 不符</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>在聊天界面中，当用户发送几条消息后，即使聊天记录被删除，这些消息仍然存在于历史记录中。</t>
+          <t>在群聊或私聊的聊天界面中，当用户删除了聊天记录后，再次进入该界面时，尽管聊天记录已被清除，但历史消息部分仍然显示之前的聊天记录。这意味着即使用户已经删除了消息，系统并没有正确地更新消息记录，导致功能不完整。</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>群聊 私聊 聊天 界面 删除 聊天记录 再次 进入 界面 聊天记录 清除 历史 消息 部分 仍然 之前 聊天记录 意味着 删除 消息 系统 没有 正确 更新 消息 记录 完整</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>在群聊或私聊的聊天界面中，当用户删除了聊天记录后，再次进入该界面时，尽管聊天记录已被清除，但历史消息部分仍然显示之前的聊天记录。这意味着即使用户已经删除了消息，系统并没有正确地更新消息记录，导致功能不完整。</t>
+          <t>在查询聊天记录时，用户输入关键字后，系统没有返回任何提示信息。尽管本地记录中存在相应的聊天内容，但查询结果仍然为空，导致用户无法找到他们想要查找的聊天记录。</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>查询 聊天记录 输入 关键字 系统 没有 返回 提示信息 记录 相应 聊天 内容 查询 仍然 为空 无法 找到 想要 查找 聊天记录</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>在聊天界面中，当没有消息跨越屏幕时，“更多消息”提示标签仍然存在。这可能会误导用户认为存在聊天记录，从而影响用户体验。</t>
+          <t>该软件在执行“清空聊天记录”的操作后，未能完全删除历史消息。尽管用户尝试通过界面选项来清除聊天记录，但在聊天历史中仍然可以找到被删除的消息，这表明软件的聊天记录清理功能存在缺陷。</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>执行 清空 聊天记录 未能 完全 删除 历史 消息 界面 选项 清除 聊天记录 聊天 历史 仍然 找到 删除 消息 表明 软件 聊天记录 清理 缺陷</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>在聊天界面中，更多消息查看的功能标签位置设置不当，导致用户界面显示异常。当没有新消息时，该标签仍然出现在屏幕的上方，这可能会误导用户认为存在聊天记录。这种设计不符合用户体验原则，因为它在没有必要的情况下分散了用户的注意力。为了提升用户体验，建议当有新消息跨越一屏幕时才显示该功能标签，否则应保持界面简洁，避免不必要的视觉干扰。</t>
+          <t>在与好友的聊天记录界面，点击下载语音文件无法下载，而是弹出试听</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>好友 聊天记录 界面 点击 下载 语音 文件 无法 下载 弹 出 试听</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>该软件中存在一个bug，即在清空群组消息后，消息并未完全被清除。尽管在聊天界面中可以清空所有消息，但是在打开群组设置后，用户仍然可以在聊天记录中找到这些已被清空的消息。这可能是由于软件在处理消息删除请求时出现了错误或延迟，导致消息未被正确更新至聊天记录中。</t>
+          <t>该软件在查看历史消息时存在一个明显的bug。当用户按时间查找并点击没有聊天记录的时间点时，系统并未给出预期的提示信息，表明没有聊天记录。此外，选择时间的交互方式并不友好，可能导致用户误操作或难以理解如何进行下一步操作。</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>查看 历史 消息 明显 时间 查找 点击 没有 聊天记录 时间 点时 系统 并未 给出 预期 提示信息 表明 没有 聊天记录 选择 时间 交互方式 友好 误操作 难以 理解 进行 一步</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>在查询聊天记录时，用户输入关键字后，系统没有返回任何提示信息。尽管本地记录中存在相应的聊天内容，但查询结果仍然为空，导致用户无法找到他们想要查找的聊天记录。</t>
+          <t>该问题描述了一个软件的bug，即在删除群内聊天记录后，用户仍然可以在历史记录中找到这些已被删除的聊天记录。</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>软件 删除 群内 聊天记录 仍然 历史记录 找到 删除 聊天记录</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>该软件在执行“清空聊天记录”的操作后，未能完全删除历史消息。尽管用户尝试通过界面选项来清除聊天记录，但在聊天历史中仍然可以找到被删除的消息，这表明软件的聊天记录清理功能存在缺陷。</t>
+          <t>该软件在客户端被卸载并重新安装后，聊天记录未能正确更新，仍显示为在软件卸载前与某个好友的聊天记录。这导致用户无法查看和交互最新的聊天信息。</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>客户端 卸载 重新安装 聊天记录 未能 正确 更新 软件 卸载 前 好友 聊天记录 无法 查看 交互 最新 聊天 信息</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>历史消息的时间搜索选择当天之后的时间，消息记录仍然可以看到</t>
+          <t>在群聊中尝试清空聊天记录时，尽管已执行相关操作，但群成员仍能看到部分历史消息。</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>群聊 清空 聊天记录 执行 相关 但群 成员 仍能 看到 部分 历史 消息</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>进行清空聊天消息记录时，删除成功后，在聊天历史记录时仍能查到消息记录</t>
+          <t>该软件中存在一个bug，即在群聊中用户尝试清空聊天记录后，当他们再次点击聊天记录时，之前的聊天记录仍然会重新出现，没有达到预期的“清空”效果。</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>群聊 清空 聊天记录 再次 点击 聊天记录 之前 聊天记录 仍然 重新 出现 没有 达到 预期 清空 效果</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>该软件在查看历史消息时存在一个明显的bug。当用户按时间查找并点击没有聊天记录的时间点时，系统并未给出预期的提示信息，表明没有聊天记录。此外，选择时间的交互方式并不友好，可能导致用户误操作或难以理解如何进行下一步操作。</t>
+          <t>该bug描述了一个软件功能异常的问题。在用户尝试清空聊天记录时，虽然聊天记录已被成功删除，但用户仍然可以通过查看消息列表来访问并查看以前的聊天记录。这违反了用户期望的清空操作的结果，可能导致隐私泄露或误导性信息展示。</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>软件 异常 清空 聊天记录 聊天记录 成功 删除 仍然 查看 消息 列表 访问 查看 以前 聊天记录 违反 期望 清空 隐私 泄露 误导性 信息 展示</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>该问题描述了一个软件的bug，即在删除群内聊天记录后，用户仍然可以在历史记录中找到这些已被删除的聊天记录。</t>
+          <t>群聊里面的聊天记录保存的比较少，而且页面太大，布局不好</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>群聊 里面 聊天记录 保存 比较 少 页面 太 布局 不好</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>前提条件:群聊聊天记录中存在两条删除的消息
-复现步骤:进入历史记录删除的消息仍然存在</t>
+          <t>该软件存在一个明显的bug。用户在群组设置中点击清空聊天记录后，本应清空的聊天记录在聊天记录里仍然可以查看，这违反了用户的预期行为。按照正常的功能设计，用户点击清空聊天记录后，该部分记录应该被删除，无法再次查看。然而，在这个软件中，尽管用户已经执行了清空操作，但聊天记录页面依然保留并显示了聊天记录，这显然是一个功能故障。</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>明显 群组 设置 点击 清空 聊天记录 本应 清空 聊天记录 聊天记录 里 仍然 查看 违反 预期 行为 正常 功能设计 点击 清空 聊天记录 部分 记录 应该 删除 无法 再次 查看 软件 执行 清空 聊天记录 页面 依然 保留 聊天记录 显然 故障</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>该软件在客户端被卸载并重新安装后，聊天记录未能正确更新，仍显示为在软件卸载前与某个好友的聊天记录。这导致用户无法查看和交互最新的聊天信息。</t>
+          <t>如之前的聊天记录是空的并不会提示之前的聊天记录无。而是显示今天的聊天记录。但查找今天以后的聊天记录就会显示无。
+如下图所示  我查找的是12月1日的聊天记录 却显示的12月3日的</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>之前 聊天记录 空 不会 提示 之前 聊天记录 今天 聊天记录 查找 今天 以后 聊天记录 
+ 图 所示     查找 12 月 日 聊天记录   12 月 日</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
-        <is>
-          <t>该bug发生在消息助手的时间选择功能中。用户在查看群消息记录时，尝试调整到2018年或之后的时间，这违反了系统设计原则，因为历史消息只能显示到当前时间之前的信息。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>在群聊中尝试清空聊天记录时，尽管已执行相关操作，但群成员仍能看到部分历史消息。</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>该软件中存在一个bug，即在群聊中用户尝试清空聊天记录后，当他们再次点击聊天记录时，之前的聊天记录仍然会重新出现，没有达到预期的“清空”效果。</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>该bug描述了一个软件功能异常的问题。在用户尝试清空聊天记录时，虽然聊天记录已被成功删除，但用户仍然可以通过查看消息列表来访问并查看以前的聊天记录。这违反了用户期望的清空操作的结果，可能导致隐私泄露或误导性信息展示。</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>群聊里面的聊天记录保存的比较少，而且页面太大，布局不好</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>该软件存在一个明显的bug。用户在群组设置中点击清空聊天记录后，本应清空的聊天记录在聊天记录里仍然可以查看，这违反了用户的预期行为。按照正常的功能设计，用户点击清空聊天记录后，该部分记录应该被删除，无法再次查看。然而，在这个软件中，尽管用户已经执行了清空操作，但聊天记录页面依然保留并显示了聊天记录，这显然是一个功能故障。</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>该软件界面中的历史消息查询功能似乎存在逻辑错误。用户在搜索栏中尝试输入现在以后的日期（如2017年）进行查询时，系统没有按照预期返回“暂无消息”。相反，它显示了从2016年12月16日至今的所有历史消息，这明显违背了问题描述中的“只能查找现在以前的消息”的要求。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>如之前的聊天记录是空的并不会提示之前的聊天记录无。而是显示今天的聊天记录。但查找今天以后的聊天记录就会显示无。
-如下图所示  我查找的是12月1日的聊天记录 却显示的12月3日的</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
         <is>
           <t>1.测试功能：聊天页面删除功能
 2.实际结果：无法删除任何聊天记录
 3.预期结果：可随意删除群组聊天与好友聊天</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>. 聊天 页面 删除 
+ . 无法 删除 聊天记录 
+ . 预期 随意 删除 群组 聊天 好友 聊天</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>在聊天记录页面中，当用户尝试删除特定的聊天记录后，再次查询时发现被删除的记录仍然存在于列表中。这显示了一个明显的bug，即删除操作并未正确地更新数据库或内存中的记录状态。</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>聊天记录 页面 删除 特定 聊天记录 再次 查询 发现 删除 记录 仍然 列表 明显 删除 并未 正确 更新 数据库 内存 记录 状态</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>此软件在处理日期输入时存在逻辑错误。当用户尝试查询特定日期（2016年12月3日）的聊天记录时，软件正确地返回了该日期的消息，这与预期输出一致。然而，当用户尝试查询非特定日期（例如2015年12月2日或之前的所有日期）的聊天记录时，软件返回了大量非当天的聊天记录，这与预期输出不符。此外，与前一个bug相似，无论用户何时查询聊天记录，结果都会包含大量非当天的记录，这显然是不符合需求的。</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>软件 处理 日期 输入 逻辑 错误 查询 特定 日期 2016 年 12 月 日 聊天记录 软件 正确 返回 日期 消息 预期 输出 一致 查询 非 特定 日期 2015 年 12 月 日 之前 日期 聊天记录 软件 返回 大量 非 当天 聊天记录 预期 输出 不符 前 相似 查询 聊天记录 包含 大量 非 当天 记录 显然 符合 需求</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>该软件的聊天记录删除功能存在bug，用户在删除群聊天记录后，这些记录依然可见。</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>聊天记录 删除 删除 群 聊天记录 记录 依然</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>在聊天记录查找功能中存在一个bug，用户无法根据指定内容进行搜索。</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>聊天记录 查找 无法 指定 内容 进行 搜索</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>该软件的群聊历史记录功能存在一个bug，用户无法通过日期查找聊天记录。</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>群聊 历史记录 无法 日期 查找 聊天记录</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>在群设置中，清空聊天记录后，聊天记录中仍存在部分内容未被删除。</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>群 设置 清空 聊天记录 聊天记录 部分 内容 未 删除</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>在软件的管理员审批功能中，存在一个明显的界面和逻辑错误。当用户尝试发起聊天或查看聊天记录时，系统似乎无法正常显示这些信息。此外，审批状态的百分比显示为87%，这可能意味着该功能的某些部分已经成功执行，但整体上可能存在问题。</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>软件 管理员 审批 明显 界面 逻辑 错误 发起 聊天 查看 聊天记录 系统 无法 正常 信息 审批 状态 百分比 87% 意味着 部分 成功 执行 整体</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>这个bug是关于一个群聊的设置功能，当用户点击群设置里的“查看聊天记录”时，系统应该允许用户按时间顺序查看过去的聊天记录。但在当前的界面设计中，该功能似乎无法正常工作或展示出正确的时间排序，导致用户无法按照预期的方式查看聊天记录。</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>群聊 设置 点击 群 设置 里 查看 聊天记录 系统 应该 允许 时间 顺序 查看 过去 聊天记录 当前 界面设计 无法 正常 工作 展示 出 正确 时间 排序 无法 预期 方式 查看 聊天记录</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>在聊天记录页面中，当用户尝试删除特定的聊天记录后，再次查询时发现被删除的记录仍然存在于列表中。这显示了一个明显的bug，即删除操作并未正确地更新数据库或内存中的记录状态。</t>
+          <t>该软件的“清空聊天记录”功能似乎没有按预期工作。尽管在点击后聊天记录显示为已清空，但用户仍可以通过查看聊天记录来访问这些信息。这可能表明软件并未真正删除聊天记录，或者存在某种数据残留或错误。</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>清空 聊天记录 没有 预期 工作 点击 聊天记录 清空 查看 聊天记录 访问 信息 表明 软件 并未 真正 删除 聊天记录 某种 数据 残留 错误</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
-        <is>
-          <t>该软件在查询12月3日以前的日期时，显示了当天的聊天记录，而预期输出是“暂无消息”。这可能表明软件在处理历史消息查询时存在错误，特别是在跨年日期的情况下。</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>此软件在处理日期输入时存在逻辑错误。当用户尝试查询特定日期（2016年12月3日）的聊天记录时，软件正确地返回了该日期的消息，这与预期输出一致。然而，当用户尝试查询非特定日期（例如2015年12月2日或之前的所有日期）的聊天记录时，软件返回了大量非当天的聊天记录，这与预期输出不符。此外，与前一个bug相似，无论用户何时查询聊天记录，结果都会包含大量非当天的记录，这显然是不符合需求的。</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>该软件的聊天记录删除功能存在bug，用户在删除群聊天记录后，这些记录依然可见。</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>在聊天记录查找功能中存在一个bug，用户无法根据指定内容进行搜索。</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>该软件的群聊历史记录功能存在一个bug，用户无法通过日期查找聊天记录。</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>在群设置中，清空聊天记录后，聊天记录中仍存在部分内容未被删除。</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>该软件界面显示的好友消息助手的历史消息部分为空，没有展示任何历史消息记录。</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>建议下版本添加“群消息助手删除”功能</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>这个bug是关于一个群聊的设置功能，当用户点击群设置里的“查看聊天记录”时，系统应该允许用户按时间顺序查看过去的聊天记录。但在当前的界面设计中，该功能似乎无法正常工作或展示出正确的时间排序，导致用户无法按照预期的方式查看聊天记录。</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>该软件的“清空聊天记录”功能似乎没有按预期工作。尽管在点击后聊天记录显示为已清空，但用户仍可以通过查看聊天记录来访问这些信息。这可能表明软件并未真正删除聊天记录，或者存在某种数据残留或错误。</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
         <is>
           <t>1.查看聊天记录
 2.步骤重现：群组或好友聊天界面点击右上角-聊天记录
@@ -691,159 +749,3016 @@
 4.预期结果：聊天记录较为完全，保存最近的聊天结果，查看的结果应比聊天界面显示的结果多</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>. 查看 聊天记录 
+ . 重现 群组 好友 聊天 界面 点击 右上角 - 聊天记录 
+ . 聊天记录 完全 很少 聊天 界面 保存 少 
+ . 预期 聊天记录 较为 完全 保存 最近 聊天 查看 应比 聊天 界面显示</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>在历史聊天记录界面中，用户尝试进行关键字查询搜索时，发现加载时间过长，无法在短时间内获取查询结果。这可能导致用户体验下降，影响用户的使用效率和满意度。</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>历史 聊天记录 界面 进行 关键字 查询 搜索 发现 加载 时间 过长 无法 短时间 获取 查询 下降 效率 满意度</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>在聊天记录界面，信息显示不全，导致部分聊天内容丢失。</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>聊天记录 界面 信息 不全 部分 聊天 内容 丢失</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>用户进入群“聊天记录”，上面的搜索按钮出现了两个，页面布局有误</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>进入 群 聊天记录 上面 搜索 按钮 出现 两个 页面 布局 有误</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>在华为P7手机上，进入群聊中的聊天记录页面时，搜索图标的UI层面显示有误。</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>华为 P7 手机 进入 群聊 聊天记录 页面 搜索 图标 UI 层面 有误</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>在群设置中 点击聊天记录 之后再历史消息中点击查看更多消息之后往下翻 就会发现 聊天记录时间抽错乱 如下图所示</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>群 设置   点击 聊天记录   之后 历史 消息 点击 查看 更 消息 之后 往下 翻   发现   聊天记录 时间 抽 错乱   图 所示</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>该软件界面显示了聊天记录的搜索功能，但存在视觉和功能上的问题。在查看聊天记录时，两个搜索标志重叠在一起，导致用户难以区分并使用它们。这可能是由于设计错误或布局问题导致的冗余显示。</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>界面显示 聊天记录 搜索 视觉 查看 聊天记录 两个 搜索 标志 重叠 一起 难以 区分 设计 错误 布局 冗余</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>在聊天记录界面中，图片之间的布局和间距显得混乱，导致用户难以区分和识别不同的消息内容。</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>聊天记录 界面 图片 之间 布局 间距 显得 混乱 难以 区分 识别 不同 消息 内容</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>删除好友后，最近联系人列表中仍然存在被删用户和聊天记录的显示问题。在尝试清除与该用户的联系后，相关数据并未从界面上移除，导致信息显示不一致。</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>删除 好友 最近 联系人 列表 仍然 被删 聊天记录 清除 联系 相关 数据 并未 界面 上移 信息 一致</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>该软件的聊天记录显示功能存在bug。在用户尝试查看“查看更多消息”时，聊天记录会重复显示，导致信息冗余，这可能会干扰用户对历史消息的理解，影响用户体验。</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>聊天记录 查看 查看 更 消息 聊天记录 重复 信息冗余 干扰 历史 消息 理解</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>随着聊天记录的增加，群公告会移到上面去，不利于消息的通知</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>聊天记录 增加 群 公告 会移 上面 不利于 消息 通知</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>在历史聊天记录界面中，用户尝试进行关键字查询搜索时，发现加载时间过长，无法在短时间内获取查询结果。这可能导致用户体验下降，影响用户的使用效率和满意度。</t>
+          <t>在软件测试过程中，发现一个页面元素混乱的问题。当用户尝试通过关键字查找聊天记录时，如果找不到相应的记录，删除搜索框中的关键字后，下方的显示区域并未回到初始的“显示全部聊天记录”状态，而是仍然为空白，这可能给用户带来困扰和不便。</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>软件测试 过程 发现 页面 元素 混乱 关键字 查找 聊天记录 找 不到 相应 记录 删除 搜索 框中 关键字 下方 区域 并未 回到 初始 聊天记录 状态 仍然 空白 带来 困扰 不便</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>在聊天记录界面，信息显示不全，导致部分聊天内容丢失。</t>
+          <t>该界面显示的是一个手机聊天应用的历史消息页面。页面顶部有一个返回箭头，旁边是“历史消息”四个字。屏幕中部有两个搜索按钮，一个标有“全部”，另一个标有“你好”。在这两个按钮下方，显示了一条聊天记录的日期和时间：“2016-12-03”。最下方的文字“加载中…”表明当前没有聊天记录可见，可能是正在加载或数据尚未更新。</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>界面显示 手机 聊天 应用 历史 消息 页面 页面 顶部 返回 箭头 旁边 历史 消息 四个 字 屏幕 中部 两个 搜索 按钮 标有 标有 你好 两个 按钮 下方 一条 聊天记录 日期 时间 2016 - 12 - 03 下方 文字 加载 … 表明 当前 没有 聊天记录 正在 加载 数据 尚未 更新</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>该软件界面显示了一个聊天历史消息的功能。在查看特定日期（例如2013年）的历史消息时，出现了控件错位的问题。具体地，日期选择器和相应的日期标签似乎没有正确对齐，导致用户界面的视觉不协调。这种错位可能会影响用户对该功能的使用体验，因为错位的部分可能会遮挡或误导用户对信息的理解。</t>
+          <t>在群组设置中，存在一个反复清空聊天记录的异常功能。即使当前没有任何聊天记录，用户仍可以点击进行清空操作。这样的设计违背了常规的用户交互逻辑，导致用户的正常使用被干扰，从而影响了用户体验，使得该功能的使用变得不友好。</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>群组 设置 反复 清空 聊天记录 异常 当前 没有 聊天记录 点击 进行 清空 设计 违背 常规 交互 逻辑 正常 干扰 变得 友好</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>用户进入群“聊天记录”，上面的搜索按钮出现了两个，页面布局有误</t>
+          <t>在软件测试中，该问题描述为：当用户尝试加入一个群聊时，之前的聊天记录被后续加入群的用户查看。这违反了用户的隐私权，可能导致敏感信息的泄露。</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>软件测试 加入 群聊 之前 聊天记录 后续 加入 群 查看 违反 隐私权 敏感 信息 泄露</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>在华为P7手机上，进入群聊中的聊天记录页面时，搜索图标的UI层面显示有误。</t>
+          <t>该软件界面中存在一个明显的用户交互问题，即“可以反复删除群组设置的聊天记录”，这导致用户体验极差。用户在尝试删除或查看已设定的群组聊天记录时，系统似乎没有提供正确的反馈或限制，使得用户可以无限制地重复此过程。这不仅消耗了用户的时间和资源，还可能对用户造成不必要的困扰和混淆。</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>界面 明显 交互 反复 删除 群组 设置 聊天记录 极差 删除 查看 设定 群组 聊天记录 系统 没有 提供 正确 反馈 限制 限制 重复 过程 消耗 时间 资源 造成 不必要 困扰 混淆</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>在群设置中 点击聊天记录 之后再历史消息中点击查看更多消息之后往下翻 就会发现 聊天记录时间抽错乱 如下图所示</t>
-        </is>
+          <t>清空聊天记录，仍然能从聊天记录的历史消息中看到消息记录</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>清空 聊天记录 仍然 聊天记录 历史 消息 看到 消息 记录</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B279"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Word</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>聊天记录</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>删除</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>查看</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>消息</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>清空</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>聊天</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>仍然</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>界面</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>历史</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>点击</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>无法</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>预期</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>软件</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>记录</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>没有</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>页面</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>查询</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>搜索</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>群聊</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>查找</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>设置</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>群</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>信息</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>.</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>之前</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>群组</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>系统</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>正确</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>部分</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>内容</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>明显</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>并未</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>发现</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>好友</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>表明</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>错误</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>执行</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>进行</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>该软件界面显示了聊天记录的搜索功能，但存在视觉和功能上的问题。在查看聊天记录时，两个搜索标志重叠在一起，导致用户难以区分并使用它们。这可能是由于设计错误或布局问题导致的冗余显示。</t>
-        </is>
+          <t>日</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>在聊天记录界面中，图片之间的布局和间距显得混乱，导致用户难以区分和识别不同的消息内容。</t>
-        </is>
+          <t>月</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>删除好友后，最近联系人列表中仍然存在被删用户和聊天记录的显示问题。在尝试清除与该用户的联系后，相关数据并未从界面上移除，导致信息显示不一致。</t>
-        </is>
+          <t>布局</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>该软件的聊天记录显示功能存在bug。在用户尝试查看“查看更多消息”时，聊天记录会重复显示，导致信息冗余，这可能会干扰用户对历史消息的理解，影响用户体验。</t>
-        </is>
+          <t>返回</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>随着聊天记录的增加，群公告会移到上面去，不利于消息的通知</t>
-        </is>
+          <t>关键字</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>在软件测试过程中，发现一个页面元素混乱的问题。当用户尝试通过关键字查找聊天记录时，如果找不到相应的记录，删除搜索框中的关键字后，下方的显示区域并未回到初始的“显示全部聊天记录”状态，而是仍然为空白，这可能给用户带来困扰和不便。</t>
-        </is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>该界面在显示文件记录与聊天记录时存在缺陷。当用户期望看到这些记录，但实际没有时，界面并未提供适当的提示信息，而是简单地展示为空白区域。这可能导致用户感到困惑或不安，因为缺乏明确的反馈机制。</t>
-        </is>
+          <t>再次</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>该界面显示的是一个手机聊天应用的历史消息页面。页面顶部有一个返回箭头，旁边是“历史消息”四个字。屏幕中部有两个搜索按钮，一个标有“全部”，另一个标有“你好”。在这两个按钮下方，显示了一条聊天记录的日期和时间：“2016-12-03”。最下方的文字“加载中…”表明当前没有聊天记录可见，可能是正在加载或数据尚未更新。</t>
-        </is>
+          <t>更新</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>在群聊功能中，用户试图查看历史消息时，界面的跳转导致了一个视觉和用户体验的问题。具体来说，历史消息的排版显得非常粗糙，关键字和日期的搜索框没有按照统一的格式或风格排列，给人一种混乱和不协调的感觉。此外，界面缺少下拉刷新的功能，这可能会影响用户更新信息的体验。</t>
-        </is>
+          <t>两个</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>这个bug涉及两个方面的用户体验问题。首先，在“朋友”tab下点击进入公众号后，点击右上角头像并选择“查看历史纪录”与常规的“查看历史记录”路径有所不同，可能导致用户混淆，这可能降低用户的满意度和操作效率。其次，在历史消息页面进行搜索时，即使输入的关键词在之前的聊天记录中不存在，系统仍会加载，并在搜索结果中显示“刚刚”，这与用户的期望不符，可能导致用户对系统的不信任。这两个问题都可能对用户的使用体验产生负面影响。</t>
-        </is>
+          <t>当前</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>该软件在删除聊天消息记录后，删除按钮没有正确地变为灰色，导致用户可以反复进行无用的删除操作。</t>
-        </is>
+          <t>清除</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>在群组设置中，存在一个反复清空聊天记录的异常功能。即使当前没有任何聊天记录，用户仍可以点击进行清空操作。这样的设计违背了常规的用户交互逻辑，导致用户的正常使用被干扰，从而影响了用户体验，使得该功能的使用变得不友好。</t>
-        </is>
+          <t>非</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>在软件测试中，该问题描述为：当用户尝试加入一个群聊时，之前的聊天记录被后续加入群的用户查看。这违反了用户的隐私权，可能导致敏感信息的泄露。</t>
-        </is>
+          <t>交互</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>该软件界面中存在一个明显的用户交互问题，即“可以反复删除群组设置的聊天记录”，这导致用户体验极差。用户在尝试删除或查看已设定的群组聊天记录时，系统似乎没有提供正确的反馈或限制，使得用户可以无限制地重复此过程。这不仅消耗了用户的时间和资源，还可能对用户造成不必要的困扰和混淆。</t>
-        </is>
+          <t>逻辑</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>该软件在执行搜索结果的删除操作时，用户期望的是单个字符的删除功能，但实际结果是全部内容都被删除，这违反了用户的期望。</t>
-        </is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>清空聊天记录，仍然能从聊天记录的历史消息中看到消息记录</t>
-        </is>
+          <t>特定</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>数据</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>列表</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>违反</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>保存</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>难以</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>界面显示</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>完全</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>按钮</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>下方</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>找到</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>进入</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>加载</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>困扰</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>里</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>应该</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>重复</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>显然</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>今天</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>过程</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>图</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>所示</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>软件测试</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>干扰</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>反复</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>标有</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>依然</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>工作</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>混乱</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>一致</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>最近</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>审批</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>上面</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>当天</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>大量</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>手机</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>之后</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>设计</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>限制</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>加入</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>年</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>更</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>区分</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>有误</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>输出</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>输入</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>历史记录</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>看到</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>相关</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>前</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>出现</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>未能</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>卸载</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>异常</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>访问</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>友好</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>不符</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>意味着</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>展示</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>理解</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>少</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>出</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>下载</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>泄露</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>相应</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>提示信息</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>找</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>想要</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>元素</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>信息冗余</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>不利于</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>为空</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>会移</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>通知</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>增加</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>上移</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>公告</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>太</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>联系</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>清理</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>往下</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>翻</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>抽</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>错乱</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>视觉</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>标志</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>重叠</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>一起</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>选项</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>被删</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>冗余</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>图片</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>之间</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>间距</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>显得</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>不到</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>不同</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>联系人</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>识别</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>不便</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>框中</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>极差</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>私聊</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>违背</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>常规</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>变得</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>后续</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>隐私权</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>敏感</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>设定</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>正在</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>提供</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>反馈</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>试图</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>消耗</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>资源</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>造成</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>不必要</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>尚未</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>…</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>区域</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>箭头</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>回到</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>初始</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>空白</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>带来</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>完整</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>应用</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>顶部</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>旁边</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>文字</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>四个</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>字</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>屏幕</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>中部</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>你好</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>一条</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>缺陷</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>弹</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>层面</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>重新</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>处理</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>仍能</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>成员</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>但群</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>最新</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>重新安装</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>客户端</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>数据库</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>相似</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>包含</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>符合</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>需求</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>指定</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>群内</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>未</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>内存</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>随意</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>一步</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>隐私</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>比较</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>本应</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>里面</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>行为</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>功能设计</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>误导性</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>保留</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>故障</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>达到</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>空</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>不会</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>提示</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>期望</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>以后</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>以前</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>效果</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>管理员</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>发起</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ui</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>不全</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>点时</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>过长</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>短时间</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>获取</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>下降</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>效率</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>满意度</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>丢失</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>应比</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>试听</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>不好</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>文件</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>华为</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>p7</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>语音</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>图标</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>给出</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>选择</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>百分比</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>排序</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>87%</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>整体</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>允许</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>顺序</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>过去</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>界面设计</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>误操作</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>方式</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>较为</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>真正</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>某种</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>残留</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>重现</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>右上角</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>交互方式</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>很少</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>混淆</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
